--- a/biology/Botanique/Chaenactis_stevioides/Chaenactis_stevioides.xlsx
+++ b/biology/Botanique/Chaenactis_stevioides/Chaenactis_stevioides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chaenactis stevioides est une espèce de plantes à fleurs de la famille des Asteraceae, originaire du sud-ouest des États-Unis et du nord du Mexique.
 </t>
@@ -513,12 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-Cette plante herbacée de 10 à 25 cm de haut a un aspect grisâtre conféré par des poils laineux blancs. Sa tige ramifiée porte des feuilles de 1 à 4 cm de long, bipennées, dont les folioles sont petits et étroits[1].
-Appareil reproducteur
-La floraison a lieu entre mars et juin.
-L'inflorescence est un capitule d'environ 2,5 cm de diamètre, aux fleurons blancs parfois légèrement teintés de rose ; les fleurons les plus externes ont des dimensions plus importantes que ceux situés près du centre[1].
-Les fruits sont des akènes ressemblant à des graines, en forme de massue et portant une écaille lancéolée à leur sommet.
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante herbacée de 10 à 25 cm de haut a un aspect grisâtre conféré par des poils laineux blancs. Sa tige ramifiée porte des feuilles de 1 à 4 cm de long, bipennées, dont les folioles sont petits et étroits.
 </t>
         </is>
       </c>
@@ -544,10 +557,51 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Description morphologique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La floraison a lieu entre mars et juin.
+L'inflorescence est un capitule d'environ 2,5 cm de diamètre, aux fleurons blancs parfois légèrement teintés de rose ; les fleurons les plus externes ont des dimensions plus importantes que ceux situés près du centre.
+Les fruits sont des akènes ressemblant à des graines, en forme de massue et portant une écaille lancéolée à leur sommet.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Chaenactis_stevioides</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chaenactis_stevioides</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette plante pousse dans les zones désertiques du sud-ouest des États-Unis (du sud de l'Oregon et de l'Idaho jusqu'au Wyoming et au Colorado, et vers le sud jusqu'au Nouveau-Mexique) et du nord-ouest du Mexique.
 </t>
